--- a/数据整理/stocks/A股/科创板/688331-荣昌生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688331-荣昌生物.xlsx
@@ -6,8 +6,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,6 +451,58 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -575,56 +627,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.08</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688331-荣昌生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688331-荣昌生物.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,13 +483,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2022-Q2</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -498,6 +515,860 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>110023</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达医疗保健行业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3381</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>506003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8070</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008359</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安医疗创新混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1903</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002300</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长盛医疗行业量化配置股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1544</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009468</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1163</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004604</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国新活力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0987</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001173</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0958</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000684</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长盛养老健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0825</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004605</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国新活力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0733</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001056</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>北信瑞丰健康生活主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001294</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>新华战略新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008412</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013483</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安医疗创新混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004050</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>64.62</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005970</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰消费优选股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009469</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008413</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001174</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006603</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实互融精选股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>82.85</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001721</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银新增益混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>24.46</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004051</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>64.62</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688331-荣昌生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688331-荣昌生物.xlsx
@@ -7,8 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,14 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D2" t="n">
-        <v>3.3</v>
+        <v>8.369999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -499,13 +500,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2022-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -515,6 +532,1544 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>110023</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达医疗保健行业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9702</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001230</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华医药科技股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6374</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012390</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧产业前瞻混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6405</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012093</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华创新升级混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>75.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5471</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160610</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华动力增长混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>53.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4924</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014313</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华创新增长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>60.62</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3376</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>506003</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.76</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3110</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012557</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧景气前瞻一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2810</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001898</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达大健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2401</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005689</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2322</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001173</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2034</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002300</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长盛医疗行业量化配置股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1836</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009468</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.14</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1560</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009898</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1328</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001174</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1173</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160603</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华普天收益混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>70.03</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1012</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501076</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华创新动力混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>51.28</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000684</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长盛养老健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0759</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002259</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华健康环保灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>76.75</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001294</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>新华战略新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005970</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国泰消费优选股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001056</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>北信瑞丰健康生活主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009469</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>82.14</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008412</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>160812</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长盛同益成长回报灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006603</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实互融精选股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012558</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中欧景气前瞻一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008413</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>017288</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - E</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012391</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中欧产业前瞻混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007518</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012094</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华创新升级混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>75.32</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001563</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华富健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006072</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>民生加银创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>014314</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏华创新增长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>60.62</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010159</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007519</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>014758</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>014929</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>民生加银创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1368,7 +2923,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
